--- a/Data/Processed/Angiosperms/missing_powo_ipni/Burseraceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Burseraceae.xlsx
@@ -487,7 +487,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -5910,7 +5910,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -8528,7 +8528,7 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -8538,7 +8538,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t xml:space="preserve">Leandra no. 4-5: 14[-16]. 1974 </t>
+          <t>Leandra no. 4-5: 14[-16]. 1974</t>
         </is>
       </c>
       <c r="J147" t="b">
@@ -8606,7 +8606,7 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -8616,7 +8616,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tribuna Farm. 7: 49, fig. 1939 </t>
+          <t>Tribuna Farm. 7: 49, fig. 1939</t>
         </is>
       </c>
       <c r="J148" t="b">
